--- a/_1/Чек листы Авторизация.xlsx
+++ b/_1/Чек листы Авторизация.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="6225" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="6225"/>
   </bookViews>
   <sheets>
-    <sheet name="Check_list_AUTH" sheetId="2" r:id="rId1"/>
-    <sheet name="Extra" sheetId="5" r:id="rId2"/>
-    <sheet name="Report" sheetId="4" r:id="rId3"/>
+    <sheet name="Report" sheetId="4" r:id="rId1"/>
+    <sheet name="Check_list_AUTH" sheetId="2" r:id="rId2"/>
+    <sheet name="Extra" sheetId="5" r:id="rId3"/>
+    <sheet name="Case ID" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -61,9 +62,6 @@
     <t>test data: user created</t>
   </si>
   <si>
-    <t>Aut_7</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -77,18 +75,6 @@
   </si>
   <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t>issue: field EMAIL ADDRESS not sensitive to register</t>
-  </si>
-  <si>
-    <t>Aut_0</t>
-  </si>
-  <si>
-    <t>Aut_0_1</t>
-  </si>
-  <si>
-    <t>Aut_0_2</t>
   </si>
   <si>
     <t>EMAIL ADDRESS: "AlexeyTesterQA@gmail.com"
@@ -116,10 +102,6 @@
   </si>
   <si>
     <t>EMAIL ADDRESS: "AlexeyTesterQA@gmail.com"
-PASSWORD: "12345678"</t>
-  </si>
-  <si>
-    <t>EMAIL ADDRESS: "AlexeyTesterQA@gmail.com"
 PASSWORD: " 1234567"</t>
   </si>
   <si>
@@ -139,14 +121,6 @@
 PASSWORD: "1234567"</t>
   </si>
   <si>
-    <t>EMAIL ADDRESS:" AlexeyTesterQA@gmail.com"
-PASSWORD: "1234567"</t>
-  </si>
-  <si>
-    <t>EMAIL ADDRESS:"AlexeyTesterQA@gmail.com "
-PASSWORD: "1234567"</t>
-  </si>
-  <si>
     <t>EMAIL ADDRESS:"AlexeyTesterQA"
 PASSWORD: "1234567"</t>
   </si>
@@ -251,7 +225,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> не валидное ( без @x.com)
+      <t xml:space="preserve"> валидное
 поле </t>
     </r>
     <r>
@@ -273,7 +247,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">  валидное</t>
+      <t xml:space="preserve"> не  валидное (&lt;6)</t>
     </r>
   </si>
   <si>
@@ -300,7 +274,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> не валидное (пробел после данных)
+      <t xml:space="preserve"> валидное
 поле </t>
     </r>
     <r>
@@ -322,7 +296,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">  валидное</t>
+      <t xml:space="preserve">  неверное</t>
     </r>
   </si>
   <si>
@@ -349,7 +323,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> не валидное (пробел перед данными)
+      <t xml:space="preserve"> валидное
 поле </t>
     </r>
     <r>
@@ -371,7 +345,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">  валидное</t>
+      <t xml:space="preserve">   валидное</t>
     </r>
   </si>
   <si>
@@ -398,6 +372,351 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve"> валидное( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в нижнем регистре</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">)
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSWORD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">   валидное</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Проверка отправки формы авторизации:
+поле</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "EMAIL ADDRESS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> валидное( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в верхнем регистре</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">)
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSWORD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">   валидное</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Проверка отправки формы авторизации:
+поле</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "EMAIL ADDRESS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  валидное </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(пробел перед данными</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">)
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSWORD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  валидное</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы авторизации:
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EMAIL ADDRESS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не  валидное </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(пробел после данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">)
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSWORD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  валидное</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы авторизации:
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EMAIL ADDRESS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" валидное
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSWORD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не  валидное (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пробел после данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы авторизации:
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EMAIL ADDRESS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve"> валидное
 поле </t>
     </r>
@@ -420,8 +739,34 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> не  валидное (&lt;6)</t>
-    </r>
+      <t xml:space="preserve"> не  валидное (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пробел перед данными</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>issue: field EMAIL ADDRESS trimm required</t>
+  </si>
+  <si>
+    <t>issue: field PASSWORD trimm required</t>
   </si>
   <si>
     <r>
@@ -447,7 +792,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> валидное
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пустое</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
 поле </t>
     </r>
     <r>
@@ -469,56 +834,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">  неверное</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Проверка отправки формы авторизации:
-поле</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "EMAIL ADDRESS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> валидное
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">   валидное</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пустое</t>
     </r>
   </si>
   <si>
@@ -545,7 +871,167 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> валидное( </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пустое</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSWORD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> валидное</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы авторизации:
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EMAIL ADDRESS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  валидное 
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSWORD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пустое</t>
+    </r>
+  </si>
+  <si>
+    <t>EMAIL ADDRESS: "AlexeyTesterQA@gmail.com"
+PASSWORD: " 1234567 "</t>
+  </si>
+  <si>
+    <t>EMAIL ADDRESS: " AlexeyTesterQA@gmail.com "
+PASSWORD: "1234567"</t>
+  </si>
+  <si>
+    <t>Possitive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Untested</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы авторизации:
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EMAIL ADDRESS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не?  валидное </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -555,7 +1041,162 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>в нижнем регистре</t>
+      <t>пробел до и после данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSWORD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  валидное</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы авторизации:
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EMAIL ADDRESS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">" валидное
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"PASSWORD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не?  валидное (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>пробел до и после данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Auth_P</t>
+  </si>
+  <si>
+    <t>EMAIL ADDRESS:"АлексейТестер@gmail.com"
+PASSWORD: "1234567"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы авторизации:
+поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"EMAIL ADDRESS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не валидное ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кириллица</t>
     </r>
     <r>
       <rPr>
@@ -587,13 +1228,13 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">   валидное</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Проверка отправки формы авторизации:
-поле</t>
+      <t xml:space="preserve">  валидное</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка отправки формы авторизации:
+поле </t>
     </r>
     <r>
       <rPr>
@@ -604,27 +1245,28 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> "EMAIL ADDRESS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> валидное( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в верхнем регистре</t>
+      <t>"EMAIL ADDRESS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не валидное ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>без @x.com</t>
     </r>
     <r>
       <rPr>
@@ -656,731 +1298,127 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">   валидное</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Проверка отправки формы авторизации:
-поле</t>
+      <t xml:space="preserve">  валидное</t>
+    </r>
+  </si>
+  <si>
+    <t>пароль больше макс симв</t>
+  </si>
+  <si>
+    <t>пароль с буквами</t>
+  </si>
+  <si>
+    <t>пароль минимум пароль максимум</t>
+  </si>
+  <si>
+    <t>issue: field "EMAIL ADDRESS" not sensitive to register</t>
+  </si>
+  <si>
+    <t>issue: "field EMAIL ADDRESS" not sensitive to register</t>
+  </si>
+  <si>
+    <t>issue: field "EMAIL ADDRESS" trimm required</t>
+  </si>
+  <si>
+    <t>issue: field "PASSWORD" trimm required</t>
+  </si>
+  <si>
+    <t>Auth_Em_0</t>
+  </si>
+  <si>
+    <t>Auth_Em_1</t>
+  </si>
+  <si>
+    <t>поле "EMAIL ADDRESS"</t>
+  </si>
+  <si>
+    <t>поле "PASSWORD"</t>
+  </si>
+  <si>
+    <t>Auth_Em_2</t>
+  </si>
+  <si>
+    <t>Auth_n1_1</t>
+  </si>
+  <si>
+    <t>Auth_Cir_1</t>
+  </si>
+  <si>
+    <t>Auth_Vn_2</t>
+  </si>
+  <si>
+    <t>Auth_min_2</t>
+  </si>
+  <si>
+    <t>Auth_1</t>
+  </si>
+  <si>
+    <t>Auth_SPb_2</t>
+  </si>
+  <si>
+    <t>Auth_SPb_1</t>
+  </si>
+  <si>
+    <t>Auth_SPa_2</t>
+  </si>
+  <si>
+    <t>Auth_SPb_2 и  Auth_SPa_2 можно обьединть(заменить) в один кейс где пробел будет с обоих сторон</t>
+  </si>
+  <si>
+    <t>Auth_SPb_1 и  Auth_SPa_1 можно обьединть(заменить) в один кейс где пробел будет с обоих сторон</t>
+  </si>
+  <si>
+    <t>Auth_LC_1</t>
+  </si>
+  <si>
+    <t>Auth_UC_1</t>
+  </si>
+  <si>
+    <t>Auth_SP_1</t>
+  </si>
+  <si>
+    <t>Auhh_SP_2</t>
+  </si>
+  <si>
+    <t>issue: предложить зарегестрироваться</t>
+  </si>
+  <si>
+    <r>
+      <t>EMAIL ADDRESS: "AlexeyTesterQA@gmail.com"
+PASSWORD: "1234567</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "EMAIL ADDRESS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  валидное </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(пробел перед данными</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">)
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  валидное</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отправки формы авторизации:
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EMAIL ADDRESS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> не  валидное </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(пробел после данных</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">)
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  валидное</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отправки формы авторизации:
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EMAIL ADDRESS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" валидное
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> не  валидное (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пробел после данных</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отправки формы авторизации:
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EMAIL ADDRESS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> валидное
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> не  валидное (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пробел перед данными</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Aut_P</t>
-  </si>
-  <si>
-    <t>Aut_P_1L</t>
-  </si>
-  <si>
-    <t>Aut_P_1U</t>
-  </si>
-  <si>
-    <t>Aut_P_1Sb</t>
-  </si>
-  <si>
-    <t>Aut_P_1Sa</t>
-  </si>
-  <si>
-    <t>Aut_P_2Sb</t>
-  </si>
-  <si>
-    <t>Aut_P_2Su</t>
-  </si>
-  <si>
-    <t>issue: field EMAIL ADDRESS trimm required</t>
-  </si>
-  <si>
-    <t>Aut_P_1Sb и  Aut_P_1Su можно обьединть(заменить) в один кейс где пробел будет с обоих сторон</t>
-  </si>
-  <si>
-    <t>Aut_P_2Sb и  Aut_P_2Su можно обьединть(заменить) в один кейс где пробел будет с обоих сторон</t>
-  </si>
-  <si>
-    <t>issue: field PASSWORD trimm required</t>
-  </si>
-  <si>
-    <t>Aut_P_1S</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отправки формы авторизации:
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EMAIL ADDRESS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">" валидное
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> не  валидное (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пробел до и после данных</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отправки формы авторизации:
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EMAIL ADDRESS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> не  валидное </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пробел до и после данных</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  валидное</t>
-    </r>
-  </si>
-  <si>
-    <t>Aut_P_2S</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отправки формы авторизации:
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EMAIL ADDRESS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пустое</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пустое</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отправки формы авторизации:
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EMAIL ADDRESS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пустое</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> валидное</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Проверка отправки формы авторизации:
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"EMAIL ADDRESS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  валидное 
-поле </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"PASSWORD"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>пустое</t>
-    </r>
-  </si>
-  <si>
-    <t>Aut_1_1</t>
-  </si>
-  <si>
-    <t>Aut_1_2</t>
-  </si>
-  <si>
-    <t>Aut_1_3</t>
-  </si>
-  <si>
-    <t>Aut_2_1</t>
-  </si>
-  <si>
-    <t>Aut_2_2</t>
-  </si>
-  <si>
-    <t>EMAIL ADDRESS: "AlexeyTesterQA@gmail.com"
-PASSWORD: " 1234567 "</t>
-  </si>
-  <si>
-    <t>EMAIL ADDRESS: " AlexeyTesterQA@gmail.com "
-PASSWORD: "1234567"</t>
-  </si>
-  <si>
-    <t>Possitive</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Untested</t>
-  </si>
-  <si>
-    <t>total</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Auth_SPa_1</t>
+  </si>
+  <si>
+    <t>Чек-Лист авторизации дополнительный</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,6 +1564,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1616,7 +1662,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1693,6 +1739,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1711,17 +1762,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF434343"/>
+          <bgColor rgb="FF434343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1832,7 +1917,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$C$23</c:f>
+              <c:f>Report!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1848,66 +1933,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Report!$D$21:$I$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Possitive</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Negative</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>All</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$D$23:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Report!$C$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Failed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Report!$D$21:$I$22</c:f>
+              <c:f>Report!$D$22:$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1929,22 +1955,81 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61538461538461542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$D$22:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Possitive</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Negative</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.30769230769230771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,7 +2040,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$C$25</c:f>
+              <c:f>Report!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1973,71 +2058,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Report!$D$21:$I$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Possitive</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Negative</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>All</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$D$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Report!$C$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Testing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Report!$D$21:$I$22</c:f>
+              <c:f>Report!$D$22:$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2065,6 +2086,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$D$22:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Possitive</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Negative</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -2086,12 +2171,12 @@
         <c:gapWidth val="99"/>
         <c:gapDepth val="111"/>
         <c:shape val="box"/>
-        <c:axId val="40444672"/>
-        <c:axId val="40446208"/>
+        <c:axId val="111139840"/>
+        <c:axId val="110629632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="40444672"/>
+        <c:axId val="111139840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,14 +2198,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40446208"/>
+        <c:crossAx val="110629632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40446208"/>
+        <c:axId val="110629632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2214,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="40444672"/>
+        <c:crossAx val="111139840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2151,7 +2236,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2233,7 +2318,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Report!$C$23:$C$26</c:f>
+              <c:f>Report!$C$24:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2253,7 +2338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$D$23:$D$26</c:f>
+              <c:f>Report!$D$24:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2261,7 +2346,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2287,7 +2372,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2298,15 +2383,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2328,15 +2413,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2643,15 +2728,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="19" t="str">
+        <f>Check_list_AUTH!A3:A15</f>
+        <v>Auth_P</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Check_list_AUTH!E3</f>
+        <v>Checked</v>
+      </c>
+      <c r="E3" s="20" t="str">
+        <f>Check_list_AUTH!A8</f>
+        <v>Auth_Em_0</v>
+      </c>
+      <c r="F3" t="str">
+        <f>Check_list_AUTH!E8</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="48" t="str">
+        <f>Check_list_AUTH!A4:A16</f>
+        <v>Auth_LC_1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Check_list_AUTH!E4</f>
+        <v>Failed</v>
+      </c>
+      <c r="E4" s="20" t="str">
+        <f>Check_list_AUTH!A9</f>
+        <v>Auth_Em_1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>Check_list_AUTH!E9</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="48" t="str">
+        <f>Check_list_AUTH!A5:A17</f>
+        <v>Auth_UC_1</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Check_list_AUTH!E5</f>
+        <v>Failed</v>
+      </c>
+      <c r="E5" s="20" t="str">
+        <f>Check_list_AUTH!A10</f>
+        <v>Auth_Em_2</v>
+      </c>
+      <c r="F5" t="str">
+        <f>Check_list_AUTH!E10</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="48" t="str">
+        <f>Check_list_AUTH!A6:A18</f>
+        <v>Auth_SP_1</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Check_list_AUTH!E6</f>
+        <v>Failed</v>
+      </c>
+      <c r="E6" s="20" t="str">
+        <f>Check_list_AUTH!A11</f>
+        <v>Auth_n1_1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>Check_list_AUTH!E11</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="48" t="str">
+        <f>Check_list_AUTH!A7:A19</f>
+        <v>Auhh_SP_2</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Check_list_AUTH!E7</f>
+        <v>Failed</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f>Check_list_AUTH!A12</f>
+        <v>Auth_Cir_1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>Check_list_AUTH!E12</f>
+        <v>Untested</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="19"/>
+      <c r="E8" s="20" t="str">
+        <f>Check_list_AUTH!A13</f>
+        <v>Auth_Vn_2</v>
+      </c>
+      <c r="F8" t="str">
+        <f>Check_list_AUTH!E13</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="48"/>
+      <c r="E9" s="20" t="str">
+        <f>Check_list_AUTH!A14</f>
+        <v>Auth_min_2</v>
+      </c>
+      <c r="F9" t="str">
+        <f>Check_list_AUTH!E14</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="48"/>
+      <c r="E10" s="20" t="str">
+        <f>Check_list_AUTH!A15</f>
+        <v>Auth_1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>Check_list_AUTH!E15</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="48"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="20"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="C23" s="22"/>
+      <c r="D23" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="24">
+        <f>COUNTIF(C3,C24)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="29">
+        <f>D24/D29</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <f>COUNTIF(F3:F12,C24)+COUNTIF(C4:C7,C24)</f>
+        <v>7</v>
+      </c>
+      <c r="G24" s="29">
+        <f>F24/F29</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H24" s="21">
+        <f>D24+F24</f>
+        <v>8</v>
+      </c>
+      <c r="I24" s="29">
+        <f>H24/H29</f>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="C25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="24">
+        <f>COUNTIF(C3,C25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="29">
+        <f>D25/D29</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <f>COUNTIF(F3:F12,C25)+COUNTIF(C4:C7,C25)</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="29">
+        <f>F25/F29</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H25" s="21">
+        <f t="shared" ref="H25:H29" si="0">D25+F25</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="29">
+        <f>H25/H29</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="24">
+        <f>COUNTIF(C3,C26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
+        <f>D26/D29</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <f>COUNTIF(F3:F12,C26)+COUNTIF(C4:C7,C26)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="29">
+        <f>F26/F29</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="29">
+        <f>H26/H29</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="C27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="24">
+        <f>COUNTIF(C3,C27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="29">
+        <f>D27/D29</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <f>COUNTIF(F3:F12,C27)+COUNTIF(C4:C7,C27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="29">
+        <f>F27/F29</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="29">
+        <f>H27/H29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="C28" s="23"/>
+      <c r="F28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="C29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="21">
+        <f>SUM(D24:D27)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="21">
+        <f>SUM(F24:F27)</f>
+        <v>12</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="30"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="15"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="15"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="15"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="16"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -2660,19 +3154,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="38"/>
+      <c r="A1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="41"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="D1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="55.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2682,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>2</v>
@@ -2691,13 +3185,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
@@ -2705,13 +3199,13 @@
     </row>
     <row r="3" spans="1:10" ht="38.25">
       <c r="A3" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
@@ -2728,22 +3222,22 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25">
-      <c r="A4" s="10" t="s">
-        <v>55</v>
+      <c r="A4" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -2755,23 +3249,23 @@
         <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="38.25">
-      <c r="A5" s="10" t="s">
-        <v>56</v>
+      <c r="A5" s="47" t="s">
+        <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -2783,23 +3277,23 @@
         <v>10</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="51">
-      <c r="A6" s="10" t="s">
-        <v>65</v>
+      <c r="A6" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -2811,25 +3305,25 @@
         <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="51">
-      <c r="A7" s="10" t="s">
-        <v>68</v>
+      <c r="A7" s="47" t="s">
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -2841,21 +3335,21 @@
         <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="38.25">
       <c r="A8" s="18" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
@@ -2874,13 +3368,13 @@
     </row>
     <row r="9" spans="1:10" ht="38.25">
       <c r="A9" s="18" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
@@ -2897,18 +3391,18 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.25">
       <c r="A10" s="18" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
@@ -2925,19 +3419,19 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="51">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -2950,22 +3444,22 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -2978,18 +3472,18 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="38.25">
       <c r="A13" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
@@ -3005,19 +3499,19 @@
         <v>10</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="12" t="s">
-        <v>17</v>
+      <c r="J13" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.25">
       <c r="A14" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
@@ -3034,18 +3528,18 @@
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="38.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="51">
       <c r="A15" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
@@ -3060,58 +3554,47 @@
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="51">
-      <c r="A16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="12" t="s">
-        <v>17</v>
+      <c r="I15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="7" t="s">
-        <v>13</v>
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>18</v>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3119,33 +3602,33 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J11:J16 J9 J3:J7 E3:H16">
-    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="Testing">
+  <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
+    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J16 J9 J3:J7 E3:H16">
-    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="Checked">
+  <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
+    <cfRule type="containsText" dxfId="2" priority="31" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J16 J9 J3:J7 E3:H16">
-    <cfRule type="containsText" dxfId="5" priority="30" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
+    <cfRule type="containsText" dxfId="1" priority="30" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J16 J9 J3:J7 E3:H16">
-    <cfRule type="containsText" dxfId="4" priority="29" operator="containsText" text="Untested">
+  <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
+    <cfRule type="containsText" dxfId="0" priority="29" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="981" yWindow="271" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="E3:H16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="E3:H15">
       <formula1>"Checked,Untested,Failed,Testing"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId1"/>
     <hyperlink ref="D1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3153,17 +3636,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -3172,19 +3655,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="38"/>
+      <c r="A1" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="41"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="D1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="51">
       <c r="A2" s="2" t="s">
@@ -3194,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>2</v>
@@ -3216,18 +3699,18 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="51">
-      <c r="A3" s="10" t="s">
-        <v>57</v>
+      <c r="A3" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -3239,22 +3722,22 @@
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51">
-      <c r="A4" s="10" t="s">
-        <v>58</v>
+      <c r="A4" s="47" t="s">
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -3266,22 +3749,22 @@
         <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
-      <c r="A5" s="10" t="s">
-        <v>59</v>
+      <c r="A5" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -3293,22 +3776,22 @@
         <v>10</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="39">
-      <c r="A6" s="10" t="s">
-        <v>60</v>
+      <c r="A6" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -3320,7 +3803,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3330,12 +3813,12 @@
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="B12" s="16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
       <c r="B13" s="16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3344,22 +3827,22 @@
     <mergeCell ref="D1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H6">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H6">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H6">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3375,410 +3858,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M38"/>
+  <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="19" t="str">
-        <f>Check_list_AUTH!A3:A16</f>
-        <v>Aut_P</v>
-      </c>
-      <c r="C3" t="str">
-        <f>Check_list_AUTH!E3</f>
-        <v>Checked</v>
-      </c>
-      <c r="E3" s="20" t="str">
-        <f>Check_list_AUTH!A8</f>
-        <v>Aut_0</v>
-      </c>
-      <c r="F3" t="str">
-        <f>Check_list_AUTH!E8</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="19" t="str">
-        <f>Check_list_AUTH!A4:A17</f>
-        <v>Aut_P_1L</v>
-      </c>
-      <c r="C4" t="str">
-        <f>Check_list_AUTH!E4</f>
-        <v>Failed</v>
-      </c>
-      <c r="E4" s="20" t="str">
-        <f>Check_list_AUTH!A9</f>
-        <v>Aut_0_1</v>
-      </c>
-      <c r="F4" t="str">
-        <f>Check_list_AUTH!E9</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="19" t="str">
-        <f>Check_list_AUTH!A5:A18</f>
-        <v>Aut_P_1U</v>
-      </c>
-      <c r="C5" t="str">
-        <f>Check_list_AUTH!E5</f>
-        <v>Failed</v>
-      </c>
-      <c r="E5" s="20" t="str">
-        <f>Check_list_AUTH!A10</f>
-        <v>Aut_0_2</v>
-      </c>
-      <c r="F5" t="str">
-        <f>Check_list_AUTH!E10</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="19" t="str">
-        <f>Check_list_AUTH!A6:A19</f>
-        <v>Aut_P_1S</v>
-      </c>
-      <c r="C6" t="str">
-        <f>Check_list_AUTH!E6</f>
-        <v>Failed</v>
-      </c>
-      <c r="E6" s="20" t="str">
-        <f>Check_list_AUTH!A11</f>
-        <v>Aut_1_1</v>
-      </c>
-      <c r="F6" t="str">
-        <f>Check_list_AUTH!E11</f>
-        <v>Failed</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="19" t="str">
-        <f>Check_list_AUTH!A7:A20</f>
-        <v>Aut_P_2S</v>
-      </c>
-      <c r="C7" t="str">
-        <f>Check_list_AUTH!E7</f>
-        <v>Failed</v>
-      </c>
-      <c r="E7" s="20" t="str">
-        <f>Check_list_AUTH!A12</f>
-        <v>Aut_1_2</v>
-      </c>
-      <c r="F7" t="str">
-        <f>Check_list_AUTH!E12</f>
-        <v>Failed</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="19"/>
-      <c r="E8" s="20" t="str">
-        <f>Check_list_AUTH!A13</f>
-        <v>Aut_1_3</v>
-      </c>
-      <c r="F8" t="str">
-        <f>Check_list_AUTH!E13</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="19"/>
-      <c r="E9" s="20" t="str">
-        <f>Check_list_AUTH!A14</f>
-        <v>Aut_2_1</v>
-      </c>
-      <c r="F9" t="str">
-        <f>Check_list_AUTH!E14</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="20"/>
-      <c r="E10" s="20" t="str">
-        <f>Check_list_AUTH!A15</f>
-        <v>Aut_2_2</v>
-      </c>
-      <c r="F10" t="str">
-        <f>Check_list_AUTH!E15</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="20"/>
-      <c r="E11" s="20" t="str">
-        <f>Check_list_AUTH!A16</f>
-        <v>Aut_7</v>
-      </c>
-      <c r="F11" t="str">
-        <f>Check_list_AUTH!E16</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="20"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="20"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="20"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="20"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="20"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="20"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="20"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="20"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="C22" s="22"/>
-      <c r="D22" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="46"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="C23" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="24">
-        <f>COUNTIF(C3:C7,C23)</f>
+    <row r="1" spans="2:3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="E23" s="29">
-        <f>D23/D28</f>
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="21">
-        <f>COUNTIF(F3:F11,C23)</f>
-        <v>7</v>
-      </c>
-      <c r="G23" s="29">
-        <f>F23/F28</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="H23" s="21">
-        <f>D23+F23</f>
-        <v>8</v>
-      </c>
-      <c r="I23" s="29">
-        <f>H23/H28</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="C24" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="24">
-        <f>COUNTIF(C3:C7,C24)</f>
-        <v>4</v>
-      </c>
-      <c r="E24" s="29">
-        <f>D24/D28</f>
-        <v>0.8</v>
-      </c>
-      <c r="F24" s="21">
-        <f>COUNTIF(F3:F11,C24)</f>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="G24" s="29">
-        <f>F24/F28</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H24" s="21">
-        <f t="shared" ref="H24:H28" si="0">D24+F24</f>
-        <v>6</v>
-      </c>
-      <c r="I24" s="29">
-        <f>H24/H28</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="C25" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="24">
-        <f>COUNTIF(C3:C7,C25)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="29">
-        <f>D25/D28</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <f>COUNTIF(F3:F11,C25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="29">
-        <f>F25/F28</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="29">
-        <f>H25/H28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="C26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="24">
-        <f>COUNTIF(C3:C7,C26)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
-        <f>D26/D28</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="21">
-        <f>COUNTIF(F3:F11,C26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="29">
-        <f>F26/F28</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="29">
-        <f>H26/H28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="C27" s="23"/>
-      <c r="F27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="C28" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="21">
-        <f>SUM(D23:D26)</f>
-        <v>5</v>
-      </c>
-      <c r="F28" s="21">
-        <f>SUM(F23:F26)</f>
-        <v>9</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="C32" s="30"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-    </row>
-    <row r="33" spans="3:9">
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="3:9">
-      <c r="C34" s="15"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-    </row>
-    <row r="35" spans="3:9">
-      <c r="C35" s="15"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="3:9">
-      <c r="C36" s="15"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="3:9">
-      <c r="C37" s="16"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-    </row>
-    <row r="38" spans="3:9">
-      <c r="C38" s="16"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_1/Чек листы Авторизация.xlsx
+++ b/_1/Чек листы Авторизация.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Report" sheetId="4" r:id="rId1"/>
     <sheet name="Check_list_AUTH" sheetId="2" r:id="rId2"/>
     <sheet name="Extra" sheetId="5" r:id="rId3"/>
-    <sheet name="Case ID" sheetId="7" r:id="rId4"/>
+    <sheet name="Таблица решений" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -1412,13 +1412,80 @@
   </si>
   <si>
     <t>Чек-Лист авторизации дополнительный</t>
+  </si>
+  <si>
+    <t>1) невозможно создать такой аккаунт
+2) поле пропускает</t>
+  </si>
+  <si>
+    <t>поля после ошибки остаются введённые</t>
+  </si>
+  <si>
+    <t>BACK SPACE -&gt; log off</t>
+  </si>
+  <si>
+    <t>Автоматизиров</t>
+  </si>
+  <si>
+    <t>https://github.com/ambu550/IntelliJ_Booking_AUTH</t>
+  </si>
+  <si>
+    <t>автоматизация</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>EMAIL ADDRESS</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>Show Page</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Loged in</t>
+  </si>
+  <si>
+    <t>Login page</t>
+  </si>
+  <si>
+    <t>Account page</t>
+  </si>
+  <si>
+    <t>Login failed</t>
+  </si>
+  <si>
+    <t>нет смысла создавать дубли (пустой эмейл и невалидный пароль)</t>
+  </si>
+  <si>
+    <t>Email required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица решений  авторизации </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,6 +1639,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1611,7 +1712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1654,6 +1755,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1662,7 +1816,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,7 +1873,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1744,6 +1897,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1753,60 +1919,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF434343"/>
-          <bgColor rgb="FF434343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1897,7 +2073,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Отчёт</a:t>
+              <a:t>Авторизация</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1905,35 +2081,37 @@
       <c:layout/>
     </c:title>
     <c:view3D>
-      <c:rAngAx val="1"/>
+      <c:rotX val="30"/>
+      <c:rotY val="10"/>
+      <c:perspective val="50"/>
     </c:view3D>
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$C$24</c:f>
+              <c:f>Report!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Checked</c:v>
+                  <c:v>Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Report!$D$22:$I$23</c:f>
+              <c:f>Report!$D$23:$H$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1950,86 +2128,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$D$24:$I$24</c:f>
+              <c:f>Report!$D$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61538461538461542</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Report!$C$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Failed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Report!$D$22:$I$23</c:f>
-              <c:strCache>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Possitive</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Negative</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>All</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$D$25:$I$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30769230769230771</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,7 +2147,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Report!$C$26</c:f>
@@ -2058,7 +2168,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Report!$D$22:$I$23</c:f>
+              <c:f>Report!$D$23:$H$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2075,54 +2185,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$D$26:$I$26</c:f>
+              <c:f>Report!$D$26:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$C$27</c:f>
+              <c:f>Report!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Testing</c:v>
+                  <c:v>Failed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Report!$D$22:$I$23</c:f>
+              <c:f>Report!$D$23:$H$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2139,240 +2235,124 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$D$27:$I$27</c:f>
+              <c:f>Report!$D$25:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showVal val="1"/>
-        </c:dLbls>
-        <c:gapWidth val="99"/>
-        <c:gapDepth val="111"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Checked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Report!$D$23:$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Possitive</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Negative</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:gapWidth val="55"/>
+        <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="111139840"/>
-        <c:axId val="110629632"/>
+        <c:axId val="93728768"/>
+        <c:axId val="97992704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="111139840"/>
+        <c:axId val="93728768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="110629632"/>
+        <c:crossAx val="97992704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110629632"/>
+        <c:axId val="97992704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="111139840"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93728768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:scene3d>
-      <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
-    </a:scene3d>
-    <a:sp3d>
-      <a:bevelT w="0"/>
-    </a:sp3d>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Possitive</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:explosion val="25"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:explosion val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showPercent val="1"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Report!$C$24:$C$27</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Checked</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Untested</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Testing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$D$24:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="r"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2382,20 +2362,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2405,36 +2385,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2730,15 +2680,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
@@ -2766,7 +2716,7 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="48" t="str">
+      <c r="B4" s="41" t="str">
         <f>Check_list_AUTH!A4:A16</f>
         <v>Auth_LC_1</v>
       </c>
@@ -2784,7 +2734,7 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="48" t="str">
+      <c r="B5" s="41" t="str">
         <f>Check_list_AUTH!A5:A17</f>
         <v>Auth_UC_1</v>
       </c>
@@ -2802,7 +2752,7 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="48" t="str">
+      <c r="B6" s="41" t="str">
         <f>Check_list_AUTH!A6:A18</f>
         <v>Auth_SP_1</v>
       </c>
@@ -2820,7 +2770,7 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="48" t="str">
+      <c r="B7" s="41" t="str">
         <f>Check_list_AUTH!A7:A19</f>
         <v>Auhh_SP_2</v>
       </c>
@@ -2849,7 +2799,7 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="48"/>
+      <c r="B9" s="41"/>
       <c r="E9" s="20" t="str">
         <f>Check_list_AUTH!A14</f>
         <v>Auth_min_2</v>
@@ -2860,7 +2810,7 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="48"/>
+      <c r="B10" s="41"/>
       <c r="E10" s="20" t="str">
         <f>Check_list_AUTH!A15</f>
         <v>Auth_1</v>
@@ -2871,7 +2821,7 @@
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="48"/>
+      <c r="B11" s="41"/>
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="2:13">
@@ -2907,19 +2857,22 @@
       <c r="B20" s="20"/>
     </row>
     <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
       <c r="C23" s="22"/>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39" t="s">
+      <c r="E23" s="37"/>
+      <c r="F23" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40" t="s">
+      <c r="G23" s="38"/>
+      <c r="H23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="40"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" spans="2:9">
       <c r="C24" s="25" t="s">
@@ -2929,26 +2882,17 @@
         <f>COUNTIF(C3,C24)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="29">
-        <f>D24/D29</f>
-        <v>1</v>
-      </c>
+      <c r="E24" s="29"/>
       <c r="F24" s="21">
         <f>COUNTIF(F3:F12,C24)+COUNTIF(C4:C7,C24)</f>
         <v>7</v>
       </c>
-      <c r="G24" s="29">
-        <f>F24/F29</f>
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="G24" s="29"/>
       <c r="H24" s="21">
         <f>D24+F24</f>
         <v>8</v>
       </c>
-      <c r="I24" s="29">
-        <f>H24/H29</f>
-        <v>0.61538461538461542</v>
-      </c>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="2:9">
       <c r="C25" s="26" t="s">
@@ -2958,26 +2902,17 @@
         <f>COUNTIF(C3,C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="29">
-        <f>D25/D29</f>
-        <v>0</v>
-      </c>
+      <c r="E25" s="29"/>
       <c r="F25" s="21">
         <f>COUNTIF(F3:F12,C25)+COUNTIF(C4:C7,C25)</f>
         <v>4</v>
       </c>
-      <c r="G25" s="29">
-        <f>F25/F29</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="G25" s="29"/>
       <c r="H25" s="21">
         <f t="shared" ref="H25:H29" si="0">D25+F25</f>
         <v>4</v>
       </c>
-      <c r="I25" s="29">
-        <f>H25/H29</f>
-        <v>0.30769230769230771</v>
-      </c>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="2:9">
       <c r="C26" s="27" t="s">
@@ -2987,26 +2922,17 @@
         <f>COUNTIF(C3,C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="29">
-        <f>D26/D29</f>
-        <v>0</v>
-      </c>
+      <c r="E26" s="29"/>
       <c r="F26" s="21">
         <f>COUNTIF(F3:F12,C26)+COUNTIF(C4:C7,C26)</f>
         <v>1</v>
       </c>
-      <c r="G26" s="29">
-        <f>F26/F29</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="G26" s="29"/>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I26" s="29">
-        <f>H26/H29</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="2:9">
       <c r="C27" s="28" t="s">
@@ -3016,26 +2942,17 @@
         <f>COUNTIF(C3,C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="29">
-        <f>D27/D29</f>
-        <v>0</v>
-      </c>
+      <c r="E27" s="29"/>
       <c r="F27" s="21">
         <f>COUNTIF(F3:F12,C27)+COUNTIF(C4:C7,C27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="29">
-        <f>F27/F29</f>
-        <v>0</v>
-      </c>
+      <c r="G27" s="29"/>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="29">
-        <f>H27/H29</f>
-        <v>0</v>
-      </c>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="2:9">
       <c r="C28" s="23"/>
@@ -3043,6 +2960,10 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:9">
+      <c r="B29" s="21">
+        <f>D29+F29+H29</f>
+        <v>26</v>
+      </c>
       <c r="C29" s="23" t="s">
         <v>54</v>
       </c>
@@ -3060,87 +2981,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="3:9">
-      <c r="C33" s="30"/>
+    <row r="32" spans="2:9">
+      <c r="C32" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" spans="2:9" ht="45" customHeight="1">
+      <c r="B33" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="44"/>
       <c r="D33" s="44"/>
       <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-    </row>
-    <row r="34" spans="3:9">
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-    </row>
-    <row r="35" spans="3:9">
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="C35" s="15"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="3:9">
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="2:9">
       <c r="C36" s="15"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="3:9">
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="2:9">
       <c r="C37" s="15"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-    </row>
-    <row r="38" spans="3:9">
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="2:9">
       <c r="C38" s="16"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-    </row>
-    <row r="39" spans="3:9">
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+    </row>
+    <row r="39" spans="2:9">
       <c r="C39" s="16"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B33" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="F24 F25:F27 H24:H27" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3154,19 +3092,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="55.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -3226,7 +3164,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3254,7 +3192,7 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="38.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3282,7 +3220,7 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="51">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="40" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3312,7 +3250,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="51">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3470,7 +3408,9 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="J12" s="12" t="s">
         <v>16</v>
       </c>
@@ -3561,40 +3501,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="B26" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3603,22 +3568,22 @@
     <mergeCell ref="D1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
-    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
-    <cfRule type="containsText" dxfId="2" priority="31" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
-    <cfRule type="containsText" dxfId="1" priority="30" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="5" priority="30" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
-    <cfRule type="containsText" dxfId="0" priority="29" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="4" priority="29" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3641,7 +3606,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3655,19 +3620,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="51">
       <c r="A2" s="2" t="s">
@@ -3699,7 +3664,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="51">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3726,7 +3691,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="51">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3753,7 +3718,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="40" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3780,7 +3745,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="39">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3827,22 +3792,22 @@
     <mergeCell ref="D1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:H6">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH(("Testing"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H6">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H6">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H6">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3860,39 +3825,300 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C3"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:18">
+      <c r="D1" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="4" spans="1:18" ht="3.75" customHeight="1"/>
+    <row r="5" spans="1:18" ht="84.75" customHeight="1">
+      <c r="C5" s="49" t="str">
+        <f>Check_list_AUTH!A3</f>
+        <v>Auth_P</v>
+      </c>
+      <c r="D5" s="49" t="str">
+        <f>Check_list_AUTH!A4</f>
+        <v>Auth_LC_1</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="39" customHeight="1">
+      <c r="A6" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A7" s="51"/>
+      <c r="B7" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+    </row>
+    <row r="8" spans="1:18" ht="40.5" customHeight="1" thickTop="1">
+      <c r="A8" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="36" customHeight="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="F11" s="52"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="D1:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_1/Чек листы Авторизация.xlsx
+++ b/_1/Чек листы Авторизация.xlsx
@@ -1901,35 +1901,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1973,6 +1946,33 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2307,30 +2307,29 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="93728768"/>
-        <c:axId val="97992704"/>
+        <c:axId val="100994432"/>
+        <c:axId val="92721920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93728768"/>
+        <c:axId val="100994432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97992704"/>
+        <c:crossAx val="92721920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97992704"/>
+        <c:axId val="92721920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2338,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93728768"/>
+        <c:crossAx val="100994432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2352,7 +2351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2681,7 +2680,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2960,10 +2959,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="21">
-        <f>D29+F29+H29</f>
-        <v>26</v>
-      </c>
+      <c r="B29" s="21"/>
       <c r="C29" s="23" t="s">
         <v>54</v>
       </c>
@@ -2982,24 +2978,24 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
     </row>
     <row r="33" spans="2:9" ht="45" customHeight="1">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="2:9">
       <c r="C34" s="30"/>
@@ -3078,7 +3074,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3092,19 +3088,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="55.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -3620,19 +3616,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="51">
       <c r="A2" s="2" t="s">
@@ -3841,273 +3837,273 @@
       <c r="D1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="4" spans="1:18" ht="3.75" customHeight="1"/>
     <row r="5" spans="1:18" ht="84.75" customHeight="1">
-      <c r="C5" s="49" t="str">
+      <c r="C5" s="42" t="str">
         <f>Check_list_AUTH!A3</f>
         <v>Auth_P</v>
       </c>
-      <c r="D5" s="49" t="str">
+      <c r="D5" s="42" t="str">
         <f>Check_list_AUTH!A4</f>
         <v>Auth_LC_1</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="39" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="59" t="s">
+      <c r="N6" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="49" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="64" t="s">
+      <c r="N7" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:18" ht="40.5" customHeight="1" thickTop="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="O8" s="55" t="s">
+      <c r="O8" s="46" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="36" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="46" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="F10" s="54"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="F11" s="52"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="23"/>

--- a/_1/Чек листы Авторизация.xlsx
+++ b/_1/Чек листы Авторизация.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="6225"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="4" r:id="rId1"/>
-    <sheet name="Check_list_AUTH" sheetId="2" r:id="rId2"/>
-    <sheet name="Extra" sheetId="5" r:id="rId3"/>
-    <sheet name="Таблица решений" sheetId="8" r:id="rId4"/>
+    <sheet name="Check_list_AUTH" sheetId="2" r:id="rId1"/>
+    <sheet name="Extra" sheetId="5" r:id="rId2"/>
+    <sheet name="Таблица решений" sheetId="8" r:id="rId3"/>
+    <sheet name="Report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -2310,26 +2310,26 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="100994432"/>
-        <c:axId val="92721920"/>
+        <c:axId val="115134464"/>
+        <c:axId val="115136000"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100994432"/>
+        <c:axId val="115134464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92721920"/>
+        <c:crossAx val="115136000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92721920"/>
+        <c:axId val="115136000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2338,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100994432"/>
+        <c:crossAx val="115134464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2351,7 +2351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2677,404 +2677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M39"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="19" t="str">
-        <f>Check_list_AUTH!A3:A15</f>
-        <v>Auth_P</v>
-      </c>
-      <c r="C3" t="str">
-        <f>Check_list_AUTH!E3</f>
-        <v>Checked</v>
-      </c>
-      <c r="E3" s="20" t="str">
-        <f>Check_list_AUTH!A8</f>
-        <v>Auth_Em_0</v>
-      </c>
-      <c r="F3" t="str">
-        <f>Check_list_AUTH!E8</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="41" t="str">
-        <f>Check_list_AUTH!A4:A16</f>
-        <v>Auth_LC_1</v>
-      </c>
-      <c r="C4" t="str">
-        <f>Check_list_AUTH!E4</f>
-        <v>Failed</v>
-      </c>
-      <c r="E4" s="20" t="str">
-        <f>Check_list_AUTH!A9</f>
-        <v>Auth_Em_1</v>
-      </c>
-      <c r="F4" t="str">
-        <f>Check_list_AUTH!E9</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="41" t="str">
-        <f>Check_list_AUTH!A5:A17</f>
-        <v>Auth_UC_1</v>
-      </c>
-      <c r="C5" t="str">
-        <f>Check_list_AUTH!E5</f>
-        <v>Failed</v>
-      </c>
-      <c r="E5" s="20" t="str">
-        <f>Check_list_AUTH!A10</f>
-        <v>Auth_Em_2</v>
-      </c>
-      <c r="F5" t="str">
-        <f>Check_list_AUTH!E10</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="41" t="str">
-        <f>Check_list_AUTH!A6:A18</f>
-        <v>Auth_SP_1</v>
-      </c>
-      <c r="C6" t="str">
-        <f>Check_list_AUTH!E6</f>
-        <v>Failed</v>
-      </c>
-      <c r="E6" s="20" t="str">
-        <f>Check_list_AUTH!A11</f>
-        <v>Auth_n1_1</v>
-      </c>
-      <c r="F6" t="str">
-        <f>Check_list_AUTH!E11</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="41" t="str">
-        <f>Check_list_AUTH!A7:A19</f>
-        <v>Auhh_SP_2</v>
-      </c>
-      <c r="C7" t="str">
-        <f>Check_list_AUTH!E7</f>
-        <v>Failed</v>
-      </c>
-      <c r="E7" s="20" t="str">
-        <f>Check_list_AUTH!A12</f>
-        <v>Auth_Cir_1</v>
-      </c>
-      <c r="F7" t="str">
-        <f>Check_list_AUTH!E12</f>
-        <v>Untested</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="19"/>
-      <c r="E8" s="20" t="str">
-        <f>Check_list_AUTH!A13</f>
-        <v>Auth_Vn_2</v>
-      </c>
-      <c r="F8" t="str">
-        <f>Check_list_AUTH!E13</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="41"/>
-      <c r="E9" s="20" t="str">
-        <f>Check_list_AUTH!A14</f>
-        <v>Auth_min_2</v>
-      </c>
-      <c r="F9" t="str">
-        <f>Check_list_AUTH!E14</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="41"/>
-      <c r="E10" s="20" t="str">
-        <f>Check_list_AUTH!A15</f>
-        <v>Auth_1</v>
-      </c>
-      <c r="F10" t="str">
-        <f>Check_list_AUTH!E15</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="41"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="20"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="20"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="20"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="20"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="C24" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="24">
-        <f>COUNTIF(C3,C24)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="21">
-        <f>COUNTIF(F3:F12,C24)+COUNTIF(C4:C7,C24)</f>
-        <v>7</v>
-      </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="21">
-        <f>D24+F24</f>
-        <v>8</v>
-      </c>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="C25" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="24">
-        <f>COUNTIF(C3,C25)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="21">
-        <f>COUNTIF(F3:F12,C25)+COUNTIF(C4:C7,C25)</f>
-        <v>4</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="21">
-        <f t="shared" ref="H25:H29" si="0">D25+F25</f>
-        <v>4</v>
-      </c>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="C26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="24">
-        <f>COUNTIF(C3,C26)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="21">
-        <f>COUNTIF(F3:F12,C26)+COUNTIF(C4:C7,C26)</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="C27" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="24">
-        <f>COUNTIF(C3,C27)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="21">
-        <f>COUNTIF(F3:F12,C27)+COUNTIF(C4:C7,C27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="C28" s="23"/>
-      <c r="F28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="21"/>
-      <c r="C29" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="21">
-        <f>SUM(D24:D27)</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="21">
-        <f>SUM(F24:F27)</f>
-        <v>12</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="C32" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" spans="2:9" ht="45" customHeight="1">
-      <c r="B33" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="C35" s="15"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="C36" s="15"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="C37" s="15"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="C38" s="16"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="C39" s="16"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C32:F32"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <ignoredErrors>
-    <ignoredError sqref="F24 F25:F27 H24:H27" formula="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3597,7 +3203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -3819,12 +3425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4117,4 +3723,400 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="19" t="str">
+        <f>Check_list_AUTH!A3:A15</f>
+        <v>Auth_P</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Check_list_AUTH!E3</f>
+        <v>Checked</v>
+      </c>
+      <c r="E3" s="20" t="str">
+        <f>Check_list_AUTH!A8</f>
+        <v>Auth_Em_0</v>
+      </c>
+      <c r="F3" t="str">
+        <f>Check_list_AUTH!E8</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="41" t="str">
+        <f>Check_list_AUTH!A4:A16</f>
+        <v>Auth_LC_1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Check_list_AUTH!E4</f>
+        <v>Failed</v>
+      </c>
+      <c r="E4" s="20" t="str">
+        <f>Check_list_AUTH!A9</f>
+        <v>Auth_Em_1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>Check_list_AUTH!E9</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="41" t="str">
+        <f>Check_list_AUTH!A5:A17</f>
+        <v>Auth_UC_1</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Check_list_AUTH!E5</f>
+        <v>Failed</v>
+      </c>
+      <c r="E5" s="20" t="str">
+        <f>Check_list_AUTH!A10</f>
+        <v>Auth_Em_2</v>
+      </c>
+      <c r="F5" t="str">
+        <f>Check_list_AUTH!E10</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="41" t="str">
+        <f>Check_list_AUTH!A6:A18</f>
+        <v>Auth_SP_1</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Check_list_AUTH!E6</f>
+        <v>Failed</v>
+      </c>
+      <c r="E6" s="20" t="str">
+        <f>Check_list_AUTH!A11</f>
+        <v>Auth_n1_1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>Check_list_AUTH!E11</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="41" t="str">
+        <f>Check_list_AUTH!A7:A19</f>
+        <v>Auhh_SP_2</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Check_list_AUTH!E7</f>
+        <v>Failed</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f>Check_list_AUTH!A12</f>
+        <v>Auth_Cir_1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>Check_list_AUTH!E12</f>
+        <v>Untested</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="19"/>
+      <c r="E8" s="20" t="str">
+        <f>Check_list_AUTH!A13</f>
+        <v>Auth_Vn_2</v>
+      </c>
+      <c r="F8" t="str">
+        <f>Check_list_AUTH!E13</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="41"/>
+      <c r="E9" s="20" t="str">
+        <f>Check_list_AUTH!A14</f>
+        <v>Auth_min_2</v>
+      </c>
+      <c r="F9" t="str">
+        <f>Check_list_AUTH!E14</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="41"/>
+      <c r="E10" s="20" t="str">
+        <f>Check_list_AUTH!A15</f>
+        <v>Auth_1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>Check_list_AUTH!E15</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="41"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="20"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="20"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="24">
+        <f>COUNTIF(C3,C24)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="21">
+        <f>COUNTIF(F3:F12,C24)+COUNTIF(C4:C7,C24)</f>
+        <v>7</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="21">
+        <f>D24+F24</f>
+        <v>8</v>
+      </c>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="C25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="24">
+        <f>COUNTIF(C3,C25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="21">
+        <f>COUNTIF(F3:F12,C25)+COUNTIF(C4:C7,C25)</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="21">
+        <f t="shared" ref="H25:H29" si="0">D25+F25</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="24">
+        <f>COUNTIF(C3,C26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="21">
+        <f>COUNTIF(F3:F12,C26)+COUNTIF(C4:C7,C26)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="C27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="24">
+        <f>COUNTIF(C3,C27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="21">
+        <f>COUNTIF(F3:F12,C27)+COUNTIF(C4:C7,C27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="C28" s="23"/>
+      <c r="F28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="21">
+        <v>13</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="21">
+        <f>SUM(D24:D27)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="21">
+        <f>SUM(F24:F27)</f>
+        <v>12</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="C32" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="2:9" ht="45" customHeight="1">
+      <c r="B33" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="C35" s="15"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="C36" s="15"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="C37" s="15"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="C38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="C39" s="16"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C32:F32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B33" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="F24 F25:F27 H24:H27" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/_1/Чек листы Авторизация.xlsx
+++ b/_1/Чек листы Авторизация.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -1479,6 +1479,34 @@
   </si>
   <si>
     <t xml:space="preserve">Таблица решений  авторизации </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PRE-CONDITION: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user created</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (EMAIL ADDRESS: "AlexeyTesterQA@gmail.com" PASSWORD: "1234567")</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1712,7 +1740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1808,6 +1836,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1816,7 +1881,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1947,6 +2012,36 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1955,27 +2050,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2310,26 +2384,26 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="115134464"/>
-        <c:axId val="115136000"/>
+        <c:axId val="118927360"/>
+        <c:axId val="118928896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="115134464"/>
+        <c:axId val="118927360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115136000"/>
+        <c:crossAx val="118928896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115136000"/>
+        <c:axId val="118928896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2412,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115134464"/>
+        <c:crossAx val="118927360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2351,7 +2425,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2677,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2694,114 +2768,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-    </row>
-    <row r="2" spans="1:10" ht="55.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="38.25">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:10" ht="38.25">
+      <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="11" t="s">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="38.25">
-      <c r="A4" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="38.25">
       <c r="A5" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="13" t="s">
@@ -2817,49 +2876,47 @@
         <v>10</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.25">
+      <c r="A6" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="51">
-      <c r="A6" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="51">
       <c r="A7" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
@@ -2875,25 +2932,25 @@
         <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="38.25">
-      <c r="A8" s="18" t="s">
-        <v>68</v>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -2904,17 +2961,22 @@
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="38.25">
       <c r="A9" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
@@ -2930,19 +2992,16 @@
         <v>10</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="11" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" spans="1:10" ht="38.25">
       <c r="A10" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
@@ -2958,16 +3017,19 @@
         <v>10</v>
       </c>
       <c r="I10" s="5"/>
+      <c r="J10" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="38.25">
       <c r="A11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
@@ -2983,23 +3045,20 @@
         <v>10</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="12" spans="1:10" ht="38.25">
       <c r="A12" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -3010,26 +3069,24 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="38.25">
       <c r="A13" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -3040,20 +3097,22 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.25">
       <c r="A14" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
@@ -3073,15 +3132,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51">
+    <row r="15" spans="1:10" ht="38.25">
       <c r="A15" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
@@ -3096,106 +3155,135 @@
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="51">
+      <c r="A16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:4">
+      <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
+  <conditionalFormatting sqref="J10 J4:J8 J12:J16 E4:H16">
     <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH(("Testing"),(E3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Testing"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
+  <conditionalFormatting sqref="J10 J4:J8 J12:J16 E4:H16">
     <cfRule type="containsText" dxfId="6" priority="31" operator="containsText" text="Checked">
-      <formula>NOT(ISERROR(SEARCH(("Checked"),(E3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
+  <conditionalFormatting sqref="J10 J4:J8 J12:J16 E4:H16">
     <cfRule type="containsText" dxfId="5" priority="30" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(E3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9 J3:J7 J11:J15 E3:H15">
+  <conditionalFormatting sqref="J10 J4:J8 J12:J16 E4:H16">
     <cfRule type="containsText" dxfId="4" priority="29" operator="containsText" text="Untested">
-      <formula>NOT(ISERROR(SEARCH(("Untested"),(E3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="981" yWindow="271" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="E3:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cheklist items status must be only: Checked, Untested, Failed, Testing" sqref="E4:H16">
       <formula1>"Checked,Untested,Failed,Testing"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId1"/>
     <hyperlink ref="D1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3222,19 +3310,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="51">
       <c r="A2" s="2" t="s">
@@ -3429,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3443,32 +3531,32 @@
       <c r="D1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="4" spans="1:18" ht="3.75" customHeight="1"/>
     <row r="5" spans="1:18" ht="84.75" customHeight="1">
       <c r="C5" s="42" t="str">
-        <f>Check_list_AUTH!A3</f>
+        <f>Check_list_AUTH!A4</f>
         <v>Auth_P</v>
       </c>
       <c r="D5" s="42" t="str">
-        <f>Check_list_AUTH!A4</f>
+        <f>Check_list_AUTH!A5</f>
         <v>Auth_LC_1</v>
       </c>
       <c r="E5" s="42" t="s">
@@ -3506,7 +3594,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="39" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -3553,7 +3641,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="51" t="s">
         <v>101</v>
       </c>
@@ -3601,7 +3689,7 @@
       <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:18" ht="40.5" customHeight="1" thickTop="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -3648,7 +3736,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="36" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="47" t="s">
         <v>102</v>
       </c>
@@ -3699,17 +3787,17 @@
       <c r="F11" s="43"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="23"/>
@@ -3747,125 +3835,125 @@
       <c r="M2" s="22"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="19" t="str">
-        <f>Check_list_AUTH!A3:A15</f>
-        <v>Auth_P</v>
+      <c r="B3" s="19" t="e">
+        <f>Check_list_AUTH!A4:A16</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C3" t="str">
-        <f>Check_list_AUTH!E3</f>
+        <f>Check_list_AUTH!E4</f>
         <v>Checked</v>
       </c>
       <c r="E3" s="20" t="str">
-        <f>Check_list_AUTH!A8</f>
+        <f>Check_list_AUTH!A9</f>
         <v>Auth_Em_0</v>
       </c>
       <c r="F3" t="str">
-        <f>Check_list_AUTH!E8</f>
-        <v>Checked</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="41" t="str">
-        <f>Check_list_AUTH!A4:A16</f>
-        <v>Auth_LC_1</v>
-      </c>
-      <c r="C4" t="str">
-        <f>Check_list_AUTH!E4</f>
-        <v>Failed</v>
-      </c>
-      <c r="E4" s="20" t="str">
-        <f>Check_list_AUTH!A9</f>
-        <v>Auth_Em_1</v>
-      </c>
-      <c r="F4" t="str">
         <f>Check_list_AUTH!E9</f>
         <v>Checked</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="41" t="str">
+    <row r="4" spans="2:13">
+      <c r="B4" s="41" t="e">
         <f>Check_list_AUTH!A5:A17</f>
-        <v>Auth_UC_1</v>
-      </c>
-      <c r="C5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" t="str">
         <f>Check_list_AUTH!E5</f>
         <v>Failed</v>
       </c>
-      <c r="E5" s="20" t="str">
+      <c r="E4" s="20" t="str">
         <f>Check_list_AUTH!A10</f>
-        <v>Auth_Em_2</v>
-      </c>
-      <c r="F5" t="str">
+        <v>Auth_Em_1</v>
+      </c>
+      <c r="F4" t="str">
         <f>Check_list_AUTH!E10</f>
         <v>Checked</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="41" t="str">
+    <row r="5" spans="2:13">
+      <c r="B5" s="41" t="e">
         <f>Check_list_AUTH!A6:A18</f>
-        <v>Auth_SP_1</v>
-      </c>
-      <c r="C6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C5" t="str">
         <f>Check_list_AUTH!E6</f>
         <v>Failed</v>
       </c>
-      <c r="E6" s="20" t="str">
+      <c r="E5" s="20" t="str">
         <f>Check_list_AUTH!A11</f>
-        <v>Auth_n1_1</v>
-      </c>
-      <c r="F6" t="str">
+        <v>Auth_Em_2</v>
+      </c>
+      <c r="F5" t="str">
         <f>Check_list_AUTH!E11</f>
         <v>Checked</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="41" t="str">
+    <row r="6" spans="2:13">
+      <c r="B6" s="41" t="e">
         <f>Check_list_AUTH!A7:A19</f>
-        <v>Auhh_SP_2</v>
-      </c>
-      <c r="C7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" t="str">
         <f>Check_list_AUTH!E7</f>
         <v>Failed</v>
       </c>
+      <c r="E6" s="20" t="str">
+        <f>Check_list_AUTH!A12</f>
+        <v>Auth_n1_1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>Check_list_AUTH!E12</f>
+        <v>Checked</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="41" t="e">
+        <f>Check_list_AUTH!A8:A20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Check_list_AUTH!E8</f>
+        <v>Failed</v>
+      </c>
       <c r="E7" s="20" t="str">
-        <f>Check_list_AUTH!A12</f>
+        <f>Check_list_AUTH!A13</f>
         <v>Auth_Cir_1</v>
       </c>
       <c r="F7" t="str">
-        <f>Check_list_AUTH!E12</f>
+        <f>Check_list_AUTH!E13</f>
         <v>Untested</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="19"/>
       <c r="E8" s="20" t="str">
-        <f>Check_list_AUTH!A13</f>
+        <f>Check_list_AUTH!A14</f>
         <v>Auth_Vn_2</v>
       </c>
       <c r="F8" t="str">
-        <f>Check_list_AUTH!E13</f>
+        <f>Check_list_AUTH!E14</f>
         <v>Checked</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="41"/>
       <c r="E9" s="20" t="str">
-        <f>Check_list_AUTH!A14</f>
+        <f>Check_list_AUTH!A15</f>
         <v>Auth_min_2</v>
       </c>
       <c r="F9" t="str">
-        <f>Check_list_AUTH!E14</f>
+        <f>Check_list_AUTH!E15</f>
         <v>Checked</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="41"/>
       <c r="E10" s="20" t="str">
-        <f>Check_list_AUTH!A15</f>
+        <f>Check_list_AUTH!A16</f>
         <v>Auth_1</v>
       </c>
       <c r="F10" t="str">
-        <f>Check_list_AUTH!E15</f>
+        <f>Check_list_AUTH!E16</f>
         <v>Checked</v>
       </c>
     </row>
@@ -4030,24 +4118,24 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" spans="2:9" ht="45" customHeight="1">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
     </row>
     <row r="34" spans="2:9">
       <c r="C34" s="30"/>

--- a/_1/Чек листы Авторизация.xlsx
+++ b/_1/Чек листы Авторизация.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -81,14 +81,6 @@
 PASSWORD: "1234567"</t>
   </si>
   <si>
-    <t>EMAIL ADDRESS: "alextesterqa@gmail.com"
-PASSWORD: "1234567"</t>
-  </si>
-  <si>
-    <t>EMAIL ADDRESS: "ALEXTESTER@GMAIL.COM"
-PASSWORD: "1234567"</t>
-  </si>
-  <si>
     <t>EMAIL ADDRESS:
 PASSWORD:</t>
   </si>
@@ -1311,12 +1303,6 @@
     <t>пароль минимум пароль максимум</t>
   </si>
   <si>
-    <t>issue: field "EMAIL ADDRESS" not sensitive to register</t>
-  </si>
-  <si>
-    <t>issue: "field EMAIL ADDRESS" not sensitive to register</t>
-  </si>
-  <si>
     <t>issue: field "EMAIL ADDRESS" trimm required</t>
   </si>
   <si>
@@ -1507,6 +1493,14 @@
       </rPr>
       <t xml:space="preserve"> (EMAIL ADDRESS: "AlexeyTesterQA@gmail.com" PASSWORD: "1234567")</t>
     </r>
+  </si>
+  <si>
+    <t>EMAIL ADDRESS: "alexeytesterqa@gmail.com"
+PASSWORD: "1234567"</t>
+  </si>
+  <si>
+    <t>EMAIL ADDRESS: "ALEXEYTESTERQA@GMAIL.COM"
+PASSWORD: "1234567"</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2146,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2317,10 +2310,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,10 +2365,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,26 +2377,26 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="box"/>
-        <c:axId val="118927360"/>
-        <c:axId val="118928896"/>
+        <c:axId val="124104704"/>
+        <c:axId val="124106240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="118927360"/>
+        <c:axId val="124104704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118928896"/>
+        <c:crossAx val="124106240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118928896"/>
+        <c:axId val="124106240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,20 +2405,19 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118927360"/>
+        <c:crossAx val="124104704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2754,14 +2746,14 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="44.5703125" customWidth="1"/>
@@ -2774,7 +2766,7 @@
       <c r="B1" s="58"/>
       <c r="C1" s="14"/>
       <c r="D1" s="59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="60"/>
       <c r="F1" s="60"/>
@@ -2784,7 +2776,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -2826,10 +2818,10 @@
     </row>
     <row r="4" spans="1:10" ht="38.25">
       <c r="A4" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
@@ -2854,17 +2846,17 @@
     </row>
     <row r="5" spans="1:10" ht="38.25">
       <c r="A5" s="40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -2875,24 +2867,22 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25">
+    <row r="6" spans="1:10" ht="39">
       <c r="A6" s="40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -2903,20 +2893,18 @@
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="51">
       <c r="A7" s="40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
@@ -2932,7 +2920,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>16</v>
@@ -2940,13 +2928,13 @@
     </row>
     <row r="8" spans="1:10" ht="51">
       <c r="A8" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
@@ -2962,7 +2950,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>16</v>
@@ -2970,13 +2958,13 @@
     </row>
     <row r="9" spans="1:10" ht="38.25">
       <c r="A9" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
@@ -2995,13 +2983,13 @@
     </row>
     <row r="10" spans="1:10" ht="38.25">
       <c r="A10" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
@@ -3023,13 +3011,13 @@
     </row>
     <row r="11" spans="1:10" ht="38.25">
       <c r="A11" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
@@ -3048,13 +3036,13 @@
     </row>
     <row r="12" spans="1:10" ht="38.25">
       <c r="A12" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
@@ -3076,17 +3064,17 @@
     </row>
     <row r="13" spans="1:10" ht="38.25">
       <c r="A13" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -3098,7 +3086,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>16</v>
@@ -3106,13 +3094,13 @@
     </row>
     <row r="14" spans="1:10" ht="38.25">
       <c r="A14" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
@@ -3134,13 +3122,13 @@
     </row>
     <row r="15" spans="1:10" ht="38.25">
       <c r="A15" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
@@ -3162,13 +3150,13 @@
     </row>
     <row r="16" spans="1:10" ht="51">
       <c r="A16" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
@@ -3184,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>16</v>
@@ -3206,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3220,7 +3208,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -3228,27 +3216,27 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3311,12 +3299,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21">
       <c r="A1" s="58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="14"/>
       <c r="D1" s="59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="60"/>
       <c r="F1" s="60"/>
@@ -3355,13 +3343,13 @@
     </row>
     <row r="3" spans="1:9" ht="51">
       <c r="A3" s="40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
@@ -3377,18 +3365,18 @@
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="51">
       <c r="A4" s="40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
@@ -3404,18 +3392,18 @@
         <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
@@ -3431,18 +3419,18 @@
         <v>10</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="39">
       <c r="A6" s="40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
@@ -3458,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3468,12 +3456,12 @@
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="B12" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
       <c r="B13" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3529,7 +3517,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="D1" s="67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
@@ -3560,129 +3548,129 @@
         <v>Auth_LC_1</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="K5" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="L5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="O5" s="42" t="s">
         <v>73</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="39" customHeight="1">
       <c r="A6" s="64" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B6" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" s="49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M6" s="50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="36.75" customHeight="1" thickBot="1">
       <c r="A7" s="65"/>
       <c r="B7" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>105</v>
-      </c>
       <c r="N7" s="55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O7" s="53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P7" s="43"/>
       <c r="Q7" s="43"/>
@@ -3690,94 +3678,94 @@
     </row>
     <row r="8" spans="1:18" ht="40.5" customHeight="1" thickTop="1">
       <c r="A8" s="64" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M8" s="46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="36" customHeight="1">
       <c r="A9" s="64"/>
       <c r="B9" s="47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M9" s="46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N9" s="46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3788,7 +3776,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="66" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="66"/>
@@ -3859,7 +3847,7 @@
       </c>
       <c r="C4" t="str">
         <f>Check_list_AUTH!E5</f>
-        <v>Failed</v>
+        <v>Checked</v>
       </c>
       <c r="E4" s="20" t="str">
         <f>Check_list_AUTH!A10</f>
@@ -3877,7 +3865,7 @@
       </c>
       <c r="C5" t="str">
         <f>Check_list_AUTH!E6</f>
-        <v>Failed</v>
+        <v>Checked</v>
       </c>
       <c r="E5" s="20" t="str">
         <f>Check_list_AUTH!A11</f>
@@ -3995,19 +3983,19 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="39"/>
     </row>
@@ -4022,12 +4010,12 @@
       <c r="E24" s="29"/>
       <c r="F24" s="21">
         <f>COUNTIF(F3:F12,C24)+COUNTIF(C4:C7,C24)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="21">
         <f>D24+F24</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I24" s="29"/>
     </row>
@@ -4042,18 +4030,18 @@
       <c r="E25" s="29"/>
       <c r="F25" s="21">
         <f>COUNTIF(F3:F12,C25)+COUNTIF(C4:C7,C25)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="21">
         <f t="shared" ref="H25:H29" si="0">D25+F25</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="29"/>
     </row>
     <row r="26" spans="2:9">
       <c r="C26" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="24">
         <f>COUNTIF(C3,C26)</f>
@@ -4101,7 +4089,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="21">
         <f>SUM(D24:D27)</f>
@@ -4119,7 +4107,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="C32" s="66" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D32" s="66"/>
       <c r="E32" s="66"/>
@@ -4127,7 +4115,7 @@
     </row>
     <row r="33" spans="2:9" ht="45" customHeight="1">
       <c r="B33" s="69" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C33" s="70"/>
       <c r="D33" s="70"/>
